--- a/Metatranscriptomics/ListOfWHONDRS_sw_metaT.xlsx
+++ b/Metatranscriptomics/ListOfWHONDRS_sw_metaT.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikaylaborton/Documents/GitHub/Genome Resolved Open Watersheds database (GROWdb)/Genome-Resolved-Open-Watersheads-database-GROWdb/Metatranscriptomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120E7DDB-128E-0F40-BDE6-82F954CB0C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0B1C29-BF02-9842-B18E-702CD49BC6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="460" windowWidth="46160" windowHeight="27020" xr2:uid="{9F7BA06A-45F3-3D49-B925-163F8A9855A2}"/>
+    <workbookView xWindow="7500" yWindow="660" windowWidth="46160" windowHeight="27020" xr2:uid="{9F7BA06A-45F3-3D49-B925-163F8A9855A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$62</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -811,7 +814,7 @@
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="I58" sqref="I2:I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,31 +860,31 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>250282804</v>
+        <v>155180920</v>
       </c>
       <c r="E2">
-        <v>37792703404</v>
+        <v>23432318920</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -892,31 +895,31 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="D3">
-        <v>171977790</v>
+        <v>149706432</v>
       </c>
       <c r="E3">
-        <v>25968646290</v>
+        <v>22605671232</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -927,25 +930,25 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>112929274</v>
+        <v>250282804</v>
       </c>
       <c r="E4">
-        <v>17052320374</v>
+        <v>37792703404</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -962,25 +965,25 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>98893064</v>
+        <v>171977790</v>
       </c>
       <c r="E5">
-        <v>14932852664</v>
+        <v>25968646290</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -997,25 +1000,25 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>210080280</v>
+        <v>112929274</v>
       </c>
       <c r="E6">
-        <v>31722122280</v>
+        <v>17052320374</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -1032,31 +1035,31 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>149519946</v>
+        <v>98893064</v>
       </c>
       <c r="E7">
-        <v>22577511846</v>
+        <v>14932852664</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
@@ -1067,25 +1070,25 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>171991374</v>
+        <v>210080280</v>
       </c>
       <c r="E8">
-        <v>25970697474</v>
+        <v>31722122280</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -1102,25 +1105,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>158536624</v>
+        <v>171991374</v>
       </c>
       <c r="E9">
-        <v>23939030224</v>
+        <v>25970697474</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -1137,25 +1140,25 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>134406094</v>
+        <v>158536624</v>
       </c>
       <c r="E10">
-        <v>20295320194</v>
+        <v>23939030224</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -1172,25 +1175,25 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>139440114</v>
+        <v>134406094</v>
       </c>
       <c r="E11">
-        <v>21055457214</v>
+        <v>20295320194</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
         <v>6</v>
@@ -1207,25 +1210,25 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>139849586</v>
+        <v>139440114</v>
       </c>
       <c r="E12">
-        <v>21117287486</v>
+        <v>21055457214</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
@@ -1242,25 +1245,25 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>201864702</v>
+        <v>139849586</v>
       </c>
       <c r="E13">
-        <v>30481570002</v>
+        <v>21117287486</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
         <v>6</v>
@@ -1277,25 +1280,25 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>85834628</v>
+        <v>201864702</v>
       </c>
       <c r="E14">
-        <v>12961028828</v>
+        <v>30481570002</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
         <v>6</v>
@@ -1312,25 +1315,25 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>131195730</v>
+        <v>85834628</v>
       </c>
       <c r="E15">
-        <v>19810555230</v>
+        <v>12961028828</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
         <v>6</v>
@@ -1347,31 +1350,31 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16">
-        <v>265422708</v>
+        <v>131195730</v>
       </c>
       <c r="E16">
-        <v>40078828908</v>
+        <v>19810555230</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
         <v>15</v>
@@ -1592,31 +1595,31 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D23">
-        <v>155180920</v>
+        <v>172104556</v>
       </c>
       <c r="E23">
-        <v>23432318920</v>
+        <v>25987787956</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
         <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
         <v>15</v>
@@ -1627,25 +1630,25 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D24">
-        <v>172104556</v>
+        <v>118344688</v>
       </c>
       <c r="E24">
-        <v>25987787956</v>
+        <v>17870047888</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H24" t="s">
         <v>6</v>
@@ -1662,25 +1665,25 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D25">
-        <v>118344688</v>
+        <v>155289302</v>
       </c>
       <c r="E25">
-        <v>17870047888</v>
+        <v>23448684602</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s">
         <v>6</v>
@@ -1697,25 +1700,25 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D26">
-        <v>155289302</v>
+        <v>152460336</v>
       </c>
       <c r="E26">
-        <v>23448684602</v>
+        <v>23021510736</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H26" t="s">
         <v>6</v>
@@ -1732,25 +1735,25 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D27">
-        <v>152460336</v>
+        <v>148812872</v>
       </c>
       <c r="E27">
-        <v>23021510736</v>
+        <v>22470743672</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="H27" t="s">
         <v>6</v>
@@ -1767,25 +1770,25 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D28">
-        <v>148812872</v>
+        <v>143283286</v>
       </c>
       <c r="E28">
-        <v>22470743672</v>
+        <v>21635776186</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
         <v>6</v>
@@ -1802,25 +1805,25 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D29">
-        <v>143283286</v>
+        <v>173688248</v>
       </c>
       <c r="E29">
-        <v>21635776186</v>
+        <v>26226925448</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
       </c>
       <c r="G29">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H29" t="s">
         <v>6</v>
@@ -1837,31 +1840,31 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D30">
-        <v>149706432</v>
+        <v>197725612</v>
       </c>
       <c r="E30">
-        <v>22605671232</v>
+        <v>29856567412</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
       <c r="G30">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="H30" t="s">
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="J30" t="s">
         <v>15</v>
@@ -1872,31 +1875,31 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D31">
-        <v>160266044</v>
+        <v>123679618</v>
       </c>
       <c r="E31">
-        <v>24200172644</v>
+        <v>18675622318</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="G31">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -1907,25 +1910,25 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D32">
-        <v>173688248</v>
+        <v>157051460</v>
       </c>
       <c r="E32">
-        <v>26226925448</v>
+        <v>23714770460</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
       <c r="G32">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H32" t="s">
         <v>6</v>
@@ -1942,25 +1945,25 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D33">
-        <v>197725612</v>
+        <v>162640842</v>
       </c>
       <c r="E33">
-        <v>29856567412</v>
+        <v>24558767142</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
       <c r="G33">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
         <v>6</v>
@@ -1977,25 +1980,25 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D34">
-        <v>123679618</v>
+        <v>152895654</v>
       </c>
       <c r="E34">
-        <v>18675622318</v>
+        <v>23087243754</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
       <c r="G34">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s">
         <v>6</v>
@@ -2012,25 +2015,25 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D35">
-        <v>157051460</v>
+        <v>131817196</v>
       </c>
       <c r="E35">
-        <v>23714770460</v>
+        <v>19904396596</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
       </c>
       <c r="G35">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s">
         <v>6</v>
@@ -2047,25 +2050,25 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D36">
-        <v>162640842</v>
+        <v>187055322</v>
       </c>
       <c r="E36">
-        <v>24558767142</v>
+        <v>28245353622</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
       <c r="G36">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H36" t="s">
         <v>6</v>
@@ -2082,25 +2085,25 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D37">
-        <v>152895654</v>
+        <v>166644062</v>
       </c>
       <c r="E37">
-        <v>23087243754</v>
+        <v>25163253362</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
       </c>
       <c r="G37">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H37" t="s">
         <v>6</v>
@@ -2117,25 +2120,25 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D38">
-        <v>131817196</v>
+        <v>185090406</v>
       </c>
       <c r="E38">
-        <v>19904396596</v>
+        <v>27948651306</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
       </c>
       <c r="G38">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="H38" t="s">
         <v>6</v>
@@ -2152,25 +2155,25 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D39">
-        <v>187055322</v>
+        <v>173277820</v>
       </c>
       <c r="E39">
-        <v>28245353622</v>
+        <v>26164950820</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
       </c>
       <c r="G39">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s">
         <v>6</v>
@@ -2187,25 +2190,25 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D40">
-        <v>166644062</v>
+        <v>324902932</v>
       </c>
       <c r="E40">
-        <v>25163253362</v>
+        <v>49060342732</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
       </c>
       <c r="G40">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
         <v>6</v>
@@ -2222,25 +2225,25 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D41">
-        <v>185090406</v>
+        <v>171201950</v>
       </c>
       <c r="E41">
-        <v>27948651306</v>
+        <v>25851494450</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H41" t="s">
         <v>6</v>
@@ -2257,25 +2260,25 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D42">
-        <v>173277820</v>
+        <v>166243524</v>
       </c>
       <c r="E42">
-        <v>26164950820</v>
+        <v>25102772124</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
       </c>
       <c r="G42">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="H42" t="s">
         <v>6</v>
@@ -2292,25 +2295,25 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D43">
-        <v>324902932</v>
+        <v>190523662</v>
       </c>
       <c r="E43">
-        <v>49060342732</v>
+        <v>28769072962</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
       </c>
       <c r="G43">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="H43" t="s">
         <v>6</v>
@@ -2327,25 +2330,25 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D44">
-        <v>171201950</v>
+        <v>129545136</v>
       </c>
       <c r="E44">
-        <v>25851494450</v>
+        <v>19561315536</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
       </c>
       <c r="G44">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H44" t="s">
         <v>6</v>
@@ -2362,25 +2365,25 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D45">
-        <v>166243524</v>
+        <v>200041998</v>
       </c>
       <c r="E45">
-        <v>25102772124</v>
+        <v>30206341698</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
       </c>
       <c r="G45">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="H45" t="s">
         <v>6</v>
@@ -2397,25 +2400,25 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D46">
-        <v>190523662</v>
+        <v>221306914</v>
       </c>
       <c r="E46">
-        <v>28769072962</v>
+        <v>33417344014</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
       </c>
       <c r="G46">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="H46" t="s">
         <v>6</v>
@@ -2432,25 +2435,25 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D47">
-        <v>129545136</v>
+        <v>193590886</v>
       </c>
       <c r="E47">
-        <v>19561315536</v>
+        <v>29232223786</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
       </c>
       <c r="G47">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="H47" t="s">
         <v>6</v>
@@ -2467,25 +2470,25 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D48">
-        <v>200041998</v>
+        <v>233972266</v>
       </c>
       <c r="E48">
-        <v>30206341698</v>
+        <v>35329812166</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
       </c>
       <c r="G48">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="H48" t="s">
         <v>6</v>
@@ -2502,25 +2505,25 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D49">
-        <v>221306914</v>
+        <v>211104136</v>
       </c>
       <c r="E49">
-        <v>33417344014</v>
+        <v>31876724536</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
       </c>
       <c r="G49">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="H49" t="s">
         <v>6</v>
@@ -2537,25 +2540,25 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D50">
-        <v>193590886</v>
+        <v>164688994</v>
       </c>
       <c r="E50">
-        <v>29232223786</v>
+        <v>24868038094</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
       </c>
       <c r="G50">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="H50" t="s">
         <v>6</v>
@@ -2572,25 +2575,25 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D51">
-        <v>233972266</v>
+        <v>164265712</v>
       </c>
       <c r="E51">
-        <v>35329812166</v>
+        <v>24804122512</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s">
         <v>6</v>
@@ -2607,25 +2610,25 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D52">
-        <v>211104136</v>
+        <v>158821178</v>
       </c>
       <c r="E52">
-        <v>31876724536</v>
+        <v>23981997878</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
       </c>
       <c r="G52">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="H52" t="s">
         <v>6</v>
@@ -2642,25 +2645,25 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D53">
-        <v>164688994</v>
+        <v>199284612</v>
       </c>
       <c r="E53">
-        <v>24868038094</v>
+        <v>30091976412</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
       </c>
       <c r="G53">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="H53" t="s">
         <v>6</v>
@@ -2677,28 +2680,25 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54">
-        <v>164265712</v>
-      </c>
-      <c r="E54">
-        <v>24804122512</v>
+        <v>130</v>
+      </c>
+      <c r="D54" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" t="s">
+        <v>139</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54">
-        <v>80</v>
+        <v>139</v>
+      </c>
+      <c r="G54" t="s">
+        <v>139</v>
       </c>
       <c r="H54" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="I54" t="s">
         <v>14</v>
@@ -2712,28 +2712,25 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" t="s">
-        <v>126</v>
-      </c>
-      <c r="D55">
-        <v>158821178</v>
-      </c>
-      <c r="E55">
-        <v>23981997878</v>
+        <v>130</v>
+      </c>
+      <c r="D55" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" t="s">
+        <v>139</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55">
-        <v>31</v>
+        <v>139</v>
+      </c>
+      <c r="G55" t="s">
+        <v>139</v>
       </c>
       <c r="H55" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="I55" t="s">
         <v>14</v>
@@ -2747,28 +2744,25 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56">
-        <v>199284612</v>
-      </c>
-      <c r="E56">
-        <v>30091976412</v>
+        <v>130</v>
+      </c>
+      <c r="D56" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" t="s">
+        <v>139</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56">
-        <v>30</v>
+        <v>139</v>
+      </c>
+      <c r="G56" t="s">
+        <v>139</v>
       </c>
       <c r="H56" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="I56" t="s">
         <v>14</v>
@@ -2782,7 +2776,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
         <v>130</v>
@@ -2814,10 +2808,10 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D58" t="s">
         <v>139</v>
@@ -2846,28 +2840,31 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" t="s">
-        <v>139</v>
-      </c>
-      <c r="E59" t="s">
-        <v>139</v>
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <v>149519946</v>
+      </c>
+      <c r="E59">
+        <v>22577511846</v>
       </c>
       <c r="F59" t="s">
-        <v>139</v>
-      </c>
-      <c r="G59" t="s">
-        <v>139</v>
+        <v>13</v>
+      </c>
+      <c r="G59">
+        <v>59</v>
       </c>
       <c r="H59" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="I59" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J59" t="s">
         <v>15</v>
@@ -2910,28 +2907,31 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
-      </c>
-      <c r="D61" t="s">
-        <v>139</v>
-      </c>
-      <c r="E61" t="s">
-        <v>139</v>
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61">
+        <v>160266044</v>
+      </c>
+      <c r="E61">
+        <v>24200172644</v>
       </c>
       <c r="F61" t="s">
-        <v>139</v>
-      </c>
-      <c r="G61" t="s">
-        <v>139</v>
+        <v>13</v>
+      </c>
+      <c r="G61">
+        <v>41</v>
       </c>
       <c r="H61" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="I61" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s">
         <v>15</v>
@@ -2942,28 +2942,31 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" t="s">
-        <v>139</v>
-      </c>
-      <c r="E62" t="s">
-        <v>139</v>
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62">
+        <v>265422708</v>
+      </c>
+      <c r="E62">
+        <v>40078828908</v>
       </c>
       <c r="F62" t="s">
-        <v>139</v>
-      </c>
-      <c r="G62" t="s">
-        <v>139</v>
+        <v>13</v>
+      </c>
+      <c r="G62">
+        <v>28</v>
       </c>
       <c r="H62" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="I62" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="J62" t="s">
         <v>15</v>
@@ -2973,6 +2976,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K62" xr:uid="{B2FB9319-3209-F14D-9A0C-156456FCA3D1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K62">
+      <sortCondition descending="1" ref="I1:I62"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>